--- a/MISTDO.Web/wwwroot/ExportAllCenters.xlsx
+++ b/MISTDO.Web/wwwroot/ExportAllCenters.xlsx
@@ -32,7 +32,7 @@
     <t>Permit NUmber</t>
   </si>
   <si>
-    <t>774244e1-5ee8-4f2b-818d-624155ff5c6f</t>
+    <t>507a1388-7072-47e2-9290-a6534447c3ce</t>
   </si>
   <si>
     <t xml:space="preserve">Jardel Energy </t>
@@ -44,7 +44,7 @@
     <t>43,churchgate ,Nurse house, 3rd Floor, V.I,Lagos. V.I, Lagos, Nigeria</t>
   </si>
   <si>
-    <t>098000908</t>
+    <t>08035283827</t>
   </si>
   <si>
     <t>DPR/OGISP/14/1189490/N15</t>
